--- a/JavascriptLib.xlsx
+++ b/JavascriptLib.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrel_000\Documents\GitHub\Firepath\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>new Firebase()</t>
   </si>
@@ -87,13 +82,19 @@
   </si>
   <si>
     <t>endAt()</t>
+  </si>
+  <si>
+    <t>TABLE I</t>
+  </si>
+  <si>
+    <t>FUNCTIONS SUPPORTED BY FIREBASE JAVASCRIPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +123,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -146,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,6 +225,24 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -217,30 +253,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -306,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,112 +563,133 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" thickBot="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
